--- a/TESTHELFER/260421_L6(3398).xlsx
+++ b/TESTHELFER/260421_L6(3398).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armin\Documents\GitHub\3CHIF\TESTHELFER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77E62913-B2D6-4429-97BB-99D301FF25A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C6546B-E352-41E3-B8FD-2B5EEBE7F999}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Lager6_260421" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lager6_260421!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lager6_260421!$A$1:$J$38</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="109">
   <si>
     <t>Tag</t>
   </si>
@@ -288,12 +288,6 @@
     <t>MS Pernitz</t>
   </si>
   <si>
-    <t>Pfeiffer</t>
-  </si>
-  <si>
-    <t>0699/10876267</t>
-  </si>
-  <si>
     <t>Gabriela Melisa</t>
   </si>
   <si>
@@ -325,12 +319,6 @@
   </si>
   <si>
     <t>Michaela</t>
-  </si>
-  <si>
-    <t>Strobl</t>
-  </si>
-  <si>
-    <t>0680/5595747</t>
   </si>
   <si>
     <t>Weber</t>
@@ -373,10 +361,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -402,9 +396,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -685,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,8 +694,8 @@
     <col min="4" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -734,32 +730,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>256</v>
       </c>
     </row>
@@ -850,7 +846,7 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J5">
         <v>96</v>
@@ -882,10 +878,10 @@
         <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6">
-        <v>163</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -914,10 +910,10 @@
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7">
-        <v>96</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1236,10 +1232,10 @@
         <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J18">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1265,10 +1261,10 @@
         <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1326,10 +1322,10 @@
         <v>68</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J21">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1358,10 +1354,10 @@
         <v>68</v>
       </c>
       <c r="I22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J22">
-        <v>185</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1390,10 +1386,10 @@
         <v>68</v>
       </c>
       <c r="I23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J23">
-        <v>125</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1515,10 +1511,10 @@
         <v>25</v>
       </c>
       <c r="I27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J27">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1547,10 +1543,10 @@
         <v>25</v>
       </c>
       <c r="I28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J28">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1579,10 +1575,10 @@
         <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J29">
-        <v>170</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1599,19 +1595,19 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="J30">
-        <v>256</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1628,19 +1624,19 @@
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I31" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J31">
-        <v>130</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1657,19 +1653,19 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" t="s">
         <v>92</v>
-      </c>
-      <c r="F32" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" t="s">
-        <v>94</v>
       </c>
       <c r="I32" t="s">
         <v>95</v>
       </c>
       <c r="J32">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1686,19 +1682,19 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" t="s">
         <v>92</v>
       </c>
-      <c r="F33" t="s">
+      <c r="I33" t="s">
         <v>93</v>
       </c>
-      <c r="G33" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" t="s">
-        <v>96</v>
-      </c>
       <c r="J33">
-        <v>73</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1715,19 +1711,19 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="G34">
+        <v>6769131312</v>
       </c>
       <c r="I34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J34">
-        <v>164</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1744,22 +1740,19 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G35" t="s">
         <v>100</v>
       </c>
-      <c r="H35" t="s">
-        <v>25</v>
+      <c r="G35">
+        <v>6503254141</v>
       </c>
       <c r="I35" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="J35">
-        <v>256</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1776,19 +1769,22 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
-      </c>
-      <c r="G36">
-        <v>6769131312</v>
+        <v>103</v>
+      </c>
+      <c r="G36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" t="s">
+        <v>105</v>
       </c>
       <c r="I36" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J36">
-        <v>305</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1805,19 +1801,22 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" t="s">
         <v>103</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>104</v>
       </c>
-      <c r="G37">
-        <v>6503254141</v>
+      <c r="H37" t="s">
+        <v>105</v>
       </c>
       <c r="I37" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J37">
-        <v>481</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1834,95 +1833,31 @@
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" t="s">
+        <v>105</v>
+      </c>
+      <c r="I38" t="s">
         <v>107</v>
       </c>
-      <c r="G38" t="s">
-        <v>108</v>
-      </c>
-      <c r="H38" t="s">
-        <v>109</v>
-      </c>
-      <c r="I38" t="s">
-        <v>110</v>
-      </c>
       <c r="J38">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" t="s">
-        <v>108</v>
-      </c>
-      <c r="H39" t="s">
-        <v>109</v>
-      </c>
-      <c r="I39" t="s">
-        <v>111</v>
-      </c>
-      <c r="J39">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40">
-        <v>6</v>
-      </c>
-      <c r="E40" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" t="s">
-        <v>108</v>
-      </c>
-      <c r="H40" t="s">
-        <v>109</v>
-      </c>
-      <c r="I40" t="s">
-        <v>112</v>
-      </c>
-      <c r="J40">
-        <v>280</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{8E6D9644-C407-4804-B3A3-C428D3D1C07B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J40">
-      <sortCondition ref="F1"/>
+  <autoFilter ref="A1:J38" xr:uid="{8E6D9644-C407-4804-B3A3-C428D3D1C07B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J38">
+      <sortCondition ref="F1:F38"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TESTHELFER/260421_L6(3398).xlsx
+++ b/TESTHELFER/260421_L6(3398).xlsx
@@ -5,30 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armin\Documents\GitHub\3CHIF\TESTHELFER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4904bfd93c97bef6/Dokumente/GitHub/3CHIF/TESTHELFER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C6546B-E352-41E3-B8FD-2B5EEBE7F999}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{08C6546B-E352-41E3-B8FD-2B5EEBE7F999}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6B1FC77F-CDC8-4E9C-8D4D-4652C74A68E8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lager6_260421" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lager6_260421!$A$1:$J$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Lager6_260421!$A$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="111">
   <si>
     <t>Tag</t>
   </si>
@@ -355,13 +364,19 @@
   </si>
   <si>
     <t>MS Felixdorf</t>
+  </si>
+  <si>
+    <t>Keine Zustimmung der Eltern besorgt (oder so ähnlich)</t>
+  </si>
+  <si>
+    <t>Wird am Mittwoch vollständig getestet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,13 +390,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -396,14 +431,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -681,24 +721,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="73" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K10" sqref="A1:K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="73.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -730,1131 +771,1138 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>44312</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>44312</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="5">
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>44312</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="7">
         <v>210</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="K10" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
+    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
+    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
+    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
+    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>6645354348</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>349</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
+    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
+    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
+    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
+    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
+    <row r="22" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
+    <row r="23" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
+    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
+    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
+    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="3">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>6508606781</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
+    <row r="27" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
+    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
+    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="3">
+        <v>6</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
+    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3">
+        <v>6</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
+    <row r="32" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="3">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
+    <row r="33" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="3">
+        <v>6</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
+    <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="3">
+        <v>6</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>6769131312</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="3">
         <v>305</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35">
-        <v>6</v>
-      </c>
-      <c r="E35" t="s">
+    <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3">
+        <v>6</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>6503254141</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="3">
         <v>481</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36">
-        <v>6</v>
-      </c>
-      <c r="E36" t="s">
+    <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="3">
+        <v>6</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="3">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37">
-        <v>6</v>
-      </c>
-      <c r="E37" t="s">
+    <row r="37" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="3">
+        <v>6</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <v>280</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>44312</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38">
-        <v>6</v>
-      </c>
-      <c r="E38" t="s">
+    <row r="38" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>44312</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="7">
+        <v>6</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="7">
         <v>86</v>
       </c>
+      <c r="K38" s="8" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J38" xr:uid="{8E6D9644-C407-4804-B3A3-C428D3D1C07B}">
+  <autoFilter ref="A1:J1" xr:uid="{2165888B-0F3F-4BA9-83A0-15583258C440}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J38">
-      <sortCondition ref="F1:F38"/>
+      <sortCondition ref="F1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
